--- a/pystats/stats.xlsx
+++ b/pystats/stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Python\repostats\pystats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0C65E1-6C18-44AC-8B67-2EBBAB952E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCE0E24-8AAD-4835-818D-FCCF88763991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>https://github.com/Lele962/repostats.git</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\Code\Python\repostats\pystats</t>
+    <t>D:\Code\C_C++\OCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Code\Python\repostats\tests</t>
   </si>
 </sst>
 </file>
@@ -370,7 +374,7 @@
   <dimension ref="B1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -386,7 +390,7 @@
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">

--- a/pystats/stats.xlsx
+++ b/pystats/stats.xlsx
@@ -1,41 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Python\repostats\pystats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCE0E24-8AAD-4835-818D-FCCF88763991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FA4CBE-42A8-41F0-9F27-EC063E1CECF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>https://github.com/Lele962/repostats.git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+  <si>
+    <t>代码库（随便写，程序不读这个）#TODO可以变成git仓库地址</t>
+  </si>
+  <si>
+    <t>统计目录</t>
+  </si>
+  <si>
+    <t>总代码行数（不包含空行、注释以及单独的一个符号占的一行")]}"）</t>
+  </si>
+  <si>
+    <t>语言/代码行数</t>
+  </si>
+  <si>
+    <t>D:\Code\Python\repostats\tests</t>
+  </si>
+  <si>
+    <t>Python/ 857</t>
   </si>
   <si>
     <t>D:\Code\C_C++\OCR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\Code\Python\repostats\tests</t>
+  </si>
+  <si>
+    <t>C++/ 19</t>
+  </si>
+  <si>
+    <t>D:\Code\elonNFT</t>
+  </si>
+  <si>
+    <t>TypeScript/ 13630</t>
+  </si>
+  <si>
+    <t>JavaScript+Genshi Text/ 12342</t>
+  </si>
+  <si>
+    <t>JavaScript/ 12147</t>
+  </si>
+  <si>
+    <t>Markdown/ 2076</t>
+  </si>
+  <si>
+    <t>JSON/ 1150</t>
+  </si>
+  <si>
+    <t>Solidity/ 20</t>
+  </si>
+  <si>
+    <t>__unknown__/ 0</t>
+  </si>
+  <si>
+    <t>__empty__/ 0</t>
+  </si>
+  <si>
+    <t>__duplicate__/ 0</t>
   </si>
 </sst>
 </file>
@@ -85,7 +123,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -371,59 +409,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.35546875" customWidth="1"/>
     <col min="2" max="2" width="43.35546875" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.0703125" customWidth="1"/>
+    <col min="8" max="8" width="32.640625" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>857</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>41365</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{F76D1D67-5AC7-49B2-9D7C-37754B924F49}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>